--- a/aircraft_schedule_info.xlsx
+++ b/aircraft_schedule_info.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="24" uniqueCount="24">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="104" uniqueCount="104">
   <si>
     <t>trip_start_time</t>
   </si>
@@ -28,64 +28,304 @@
     <t>datetime</t>
   </si>
   <si>
-    <t>2022-11-19 08:13:55</t>
-  </si>
-  <si>
-    <t>2022-11-19 09:46:58</t>
-  </si>
-  <si>
-    <t>2022-11-19 10:01:50</t>
-  </si>
-  <si>
-    <t>2022-11-19 12:53:42</t>
-  </si>
-  <si>
-    <t>2022-11-19 13:10:15</t>
-  </si>
-  <si>
-    <t>2022-11-19 14:10:42</t>
-  </si>
-  <si>
-    <t>2022-11-19 15:04:18</t>
-  </si>
-  <si>
-    <t>2022-11-19 15:15:50</t>
-  </si>
-  <si>
-    <t>2022-11-19 15:31:55</t>
-  </si>
-  <si>
-    <t>2022-11-19 16:16:44</t>
-  </si>
-  <si>
-    <t>2022-11-19 16:37:36</t>
-  </si>
-  <si>
-    <t>2022-11-19 17:16:26</t>
-  </si>
-  <si>
-    <t>2022-11-19 17:34:29</t>
-  </si>
-  <si>
-    <t>2022-11-19 17:44:12</t>
-  </si>
-  <si>
-    <t>2022-11-19 17:57:48</t>
-  </si>
-  <si>
-    <t>2022-11-19 18:00:43</t>
-  </si>
-  <si>
-    <t>2022-11-19 19:02:54</t>
-  </si>
-  <si>
-    <t>2022-11-19 20:42:02</t>
-  </si>
-  <si>
-    <t>2022-11-19 22:02:14</t>
-  </si>
-  <si>
-    <t>2022-11-19 22:37:34</t>
+    <t>2022-11-19 08:06:52</t>
+  </si>
+  <si>
+    <t>2022-11-19 08:22:35</t>
+  </si>
+  <si>
+    <t>2022-11-19 08:36:25</t>
+  </si>
+  <si>
+    <t>2022-11-19 08:41:51</t>
+  </si>
+  <si>
+    <t>2022-11-19 08:44:31</t>
+  </si>
+  <si>
+    <t>2022-11-19 08:51:52</t>
+  </si>
+  <si>
+    <t>2022-11-19 09:01:14</t>
+  </si>
+  <si>
+    <t>2022-11-19 09:06:09</t>
+  </si>
+  <si>
+    <t>2022-11-19 09:13:19</t>
+  </si>
+  <si>
+    <t>2022-11-19 09:14:02</t>
+  </si>
+  <si>
+    <t>2022-11-19 09:19:42</t>
+  </si>
+  <si>
+    <t>2022-11-19 09:19:53</t>
+  </si>
+  <si>
+    <t>2022-11-19 09:26:40</t>
+  </si>
+  <si>
+    <t>2022-11-19 09:39:06</t>
+  </si>
+  <si>
+    <t>2022-11-19 09:40:54</t>
+  </si>
+  <si>
+    <t>2022-11-19 09:41:25</t>
+  </si>
+  <si>
+    <t>2022-11-19 09:50:23</t>
+  </si>
+  <si>
+    <t>2022-11-19 09:53:27</t>
+  </si>
+  <si>
+    <t>2022-11-19 09:57:29</t>
+  </si>
+  <si>
+    <t>2022-11-19 09:57:54</t>
+  </si>
+  <si>
+    <t>2022-11-19 10:08:22</t>
+  </si>
+  <si>
+    <t>2022-11-19 10:12:15</t>
+  </si>
+  <si>
+    <t>2022-11-19 10:35:38</t>
+  </si>
+  <si>
+    <t>2022-11-19 10:46:06</t>
+  </si>
+  <si>
+    <t>2022-11-19 11:07:01</t>
+  </si>
+  <si>
+    <t>2022-11-19 11:12:37</t>
+  </si>
+  <si>
+    <t>2022-11-19 11:16:43</t>
+  </si>
+  <si>
+    <t>2022-11-19 11:21:44</t>
+  </si>
+  <si>
+    <t>2022-11-19 11:36:55</t>
+  </si>
+  <si>
+    <t>2022-11-19 11:37:32</t>
+  </si>
+  <si>
+    <t>2022-11-19 11:43:37</t>
+  </si>
+  <si>
+    <t>2022-11-19 12:03:33</t>
+  </si>
+  <si>
+    <t>2022-11-19 12:49:49</t>
+  </si>
+  <si>
+    <t>2022-11-19 12:54:08</t>
+  </si>
+  <si>
+    <t>2022-11-19 13:09:34</t>
+  </si>
+  <si>
+    <t>2022-11-19 13:13:00</t>
+  </si>
+  <si>
+    <t>2022-11-19 13:17:40</t>
+  </si>
+  <si>
+    <t>2022-11-19 13:20:08</t>
+  </si>
+  <si>
+    <t>2022-11-19 13:26:08</t>
+  </si>
+  <si>
+    <t>2022-11-19 13:29:19</t>
+  </si>
+  <si>
+    <t>2022-11-19 13:47:27</t>
+  </si>
+  <si>
+    <t>2022-11-19 14:17:40</t>
+  </si>
+  <si>
+    <t>2022-11-19 14:34:45</t>
+  </si>
+  <si>
+    <t>2022-11-19 14:36:11</t>
+  </si>
+  <si>
+    <t>2022-11-19 14:50:45</t>
+  </si>
+  <si>
+    <t>2022-11-19 15:00:34</t>
+  </si>
+  <si>
+    <t>2022-11-19 15:01:11</t>
+  </si>
+  <si>
+    <t>2022-11-19 15:02:05</t>
+  </si>
+  <si>
+    <t>2022-11-19 15:02:13</t>
+  </si>
+  <si>
+    <t>2022-11-19 15:16:04</t>
+  </si>
+  <si>
+    <t>2022-11-19 15:23:15</t>
+  </si>
+  <si>
+    <t>2022-11-19 15:33:31</t>
+  </si>
+  <si>
+    <t>2022-11-19 16:10:33</t>
+  </si>
+  <si>
+    <t>2022-11-19 16:11:45</t>
+  </si>
+  <si>
+    <t>2022-11-19 16:14:31</t>
+  </si>
+  <si>
+    <t>2022-11-19 16:20:28</t>
+  </si>
+  <si>
+    <t>2022-11-19 16:24:40</t>
+  </si>
+  <si>
+    <t>2022-11-19 16:33:21</t>
+  </si>
+  <si>
+    <t>2022-11-19 16:38:35</t>
+  </si>
+  <si>
+    <t>2022-11-19 16:41:56</t>
+  </si>
+  <si>
+    <t>2022-11-19 16:51:16</t>
+  </si>
+  <si>
+    <t>2022-11-19 16:51:38</t>
+  </si>
+  <si>
+    <t>2022-11-19 17:00:05</t>
+  </si>
+  <si>
+    <t>2022-11-19 17:11:40</t>
+  </si>
+  <si>
+    <t>2022-11-19 17:17:55</t>
+  </si>
+  <si>
+    <t>2022-11-19 17:28:43</t>
+  </si>
+  <si>
+    <t>2022-11-19 17:33:18</t>
+  </si>
+  <si>
+    <t>2022-11-19 17:53:22</t>
+  </si>
+  <si>
+    <t>2022-11-19 18:03:01</t>
+  </si>
+  <si>
+    <t>2022-11-19 18:24:23</t>
+  </si>
+  <si>
+    <t>2022-11-19 18:26:07</t>
+  </si>
+  <si>
+    <t>2022-11-19 18:43:14</t>
+  </si>
+  <si>
+    <t>2022-11-19 19:05:50</t>
+  </si>
+  <si>
+    <t>2022-11-19 19:07:00</t>
+  </si>
+  <si>
+    <t>2022-11-19 19:07:35</t>
+  </si>
+  <si>
+    <t>2022-11-19 19:14:07</t>
+  </si>
+  <si>
+    <t>2022-11-19 19:18:39</t>
+  </si>
+  <si>
+    <t>2022-11-19 19:40:49</t>
+  </si>
+  <si>
+    <t>2022-11-19 20:07:21</t>
+  </si>
+  <si>
+    <t>2022-11-19 20:09:15</t>
+  </si>
+  <si>
+    <t>2022-11-19 20:15:21</t>
+  </si>
+  <si>
+    <t>2022-11-19 20:17:38</t>
+  </si>
+  <si>
+    <t>2022-11-19 20:29:27</t>
+  </si>
+  <si>
+    <t>2022-11-19 20:38:44</t>
+  </si>
+  <si>
+    <t>2022-11-19 20:47:42</t>
+  </si>
+  <si>
+    <t>2022-11-19 20:54:22</t>
+  </si>
+  <si>
+    <t>2022-11-19 21:04:26</t>
+  </si>
+  <si>
+    <t>2022-11-19 21:36:00</t>
+  </si>
+  <si>
+    <t>2022-11-19 21:45:43</t>
+  </si>
+  <si>
+    <t>2022-11-19 21:54:37</t>
+  </si>
+  <si>
+    <t>2022-11-19 22:10:07</t>
+  </si>
+  <si>
+    <t>2022-11-19 22:10:42</t>
+  </si>
+  <si>
+    <t>2022-11-19 22:13:41</t>
+  </si>
+  <si>
+    <t>2022-11-19 22:18:50</t>
+  </si>
+  <si>
+    <t>2022-11-19 22:25:35</t>
+  </si>
+  <si>
+    <t>2022-11-19 22:28:15</t>
+  </si>
+  <si>
+    <t>2022-11-19 22:44:27</t>
+  </si>
+  <si>
+    <t>2022-11-19 22:47:14</t>
+  </si>
+  <si>
+    <t>2022-11-19 22:50:12</t>
+  </si>
+  <si>
+    <t>2022-11-19 22:50:58</t>
   </si>
 </sst>
 </file>
@@ -443,7 +683,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:E21"/>
+  <dimension ref="A1:E101"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -468,7 +708,7 @@
         <v>0</v>
       </c>
       <c r="B2">
-        <v>1668833035</v>
+        <v>1668832612</v>
       </c>
       <c r="C2">
         <v>1</v>
@@ -485,13 +725,13 @@
         <v>1</v>
       </c>
       <c r="B3">
-        <v>1668838618</v>
+        <v>1668833555</v>
       </c>
       <c r="C3">
-        <v>18</v>
+        <v>1</v>
       </c>
       <c r="D3">
-        <v>1</v>
+        <v>18</v>
       </c>
       <c r="E3" t="s">
         <v>5</v>
@@ -502,13 +742,13 @@
         <v>2</v>
       </c>
       <c r="B4">
-        <v>1668839510</v>
+        <v>1668834385</v>
       </c>
       <c r="C4">
-        <v>18</v>
+        <v>1</v>
       </c>
       <c r="D4">
-        <v>1</v>
+        <v>18</v>
       </c>
       <c r="E4" t="s">
         <v>6</v>
@@ -519,7 +759,7 @@
         <v>3</v>
       </c>
       <c r="B5">
-        <v>1668849822</v>
+        <v>1668834711</v>
       </c>
       <c r="C5">
         <v>1</v>
@@ -536,7 +776,7 @@
         <v>4</v>
       </c>
       <c r="B6">
-        <v>1668850815</v>
+        <v>1668834871</v>
       </c>
       <c r="C6">
         <v>18</v>
@@ -553,7 +793,7 @@
         <v>5</v>
       </c>
       <c r="B7">
-        <v>1668854442</v>
+        <v>1668835312</v>
       </c>
       <c r="C7">
         <v>18</v>
@@ -570,7 +810,7 @@
         <v>6</v>
       </c>
       <c r="B8">
-        <v>1668857658</v>
+        <v>1668835874</v>
       </c>
       <c r="C8">
         <v>18</v>
@@ -587,13 +827,13 @@
         <v>7</v>
       </c>
       <c r="B9">
-        <v>1668858350</v>
+        <v>1668836169</v>
       </c>
       <c r="C9">
-        <v>18</v>
+        <v>1</v>
       </c>
       <c r="D9">
-        <v>1</v>
+        <v>18</v>
       </c>
       <c r="E9" t="s">
         <v>11</v>
@@ -604,7 +844,7 @@
         <v>8</v>
       </c>
       <c r="B10">
-        <v>1668859315</v>
+        <v>1668836599</v>
       </c>
       <c r="C10">
         <v>18</v>
@@ -621,13 +861,13 @@
         <v>9</v>
       </c>
       <c r="B11">
-        <v>1668862004</v>
+        <v>1668836642</v>
       </c>
       <c r="C11">
-        <v>18</v>
+        <v>1</v>
       </c>
       <c r="D11">
-        <v>1</v>
+        <v>18</v>
       </c>
       <c r="E11" t="s">
         <v>13</v>
@@ -638,13 +878,13 @@
         <v>10</v>
       </c>
       <c r="B12">
-        <v>1668863256</v>
+        <v>1668836982</v>
       </c>
       <c r="C12">
-        <v>18</v>
+        <v>1</v>
       </c>
       <c r="D12">
-        <v>1</v>
+        <v>18</v>
       </c>
       <c r="E12" t="s">
         <v>14</v>
@@ -655,13 +895,13 @@
         <v>11</v>
       </c>
       <c r="B13">
-        <v>1668865586</v>
+        <v>1668836993</v>
       </c>
       <c r="C13">
-        <v>18</v>
+        <v>1</v>
       </c>
       <c r="D13">
-        <v>1</v>
+        <v>18</v>
       </c>
       <c r="E13" t="s">
         <v>15</v>
@@ -672,7 +912,7 @@
         <v>12</v>
       </c>
       <c r="B14">
-        <v>1668866669</v>
+        <v>1668837400</v>
       </c>
       <c r="C14">
         <v>18</v>
@@ -689,13 +929,13 @@
         <v>13</v>
       </c>
       <c r="B15">
-        <v>1668867252</v>
+        <v>1668838146</v>
       </c>
       <c r="C15">
-        <v>18</v>
+        <v>1</v>
       </c>
       <c r="D15">
-        <v>1</v>
+        <v>18</v>
       </c>
       <c r="E15" t="s">
         <v>17</v>
@@ -706,7 +946,7 @@
         <v>14</v>
       </c>
       <c r="B16">
-        <v>1668868068</v>
+        <v>1668838254</v>
       </c>
       <c r="C16">
         <v>18</v>
@@ -723,13 +963,13 @@
         <v>15</v>
       </c>
       <c r="B17">
-        <v>1668868243</v>
+        <v>1668838285</v>
       </c>
       <c r="C17">
-        <v>18</v>
+        <v>1</v>
       </c>
       <c r="D17">
-        <v>1</v>
+        <v>18</v>
       </c>
       <c r="E17" t="s">
         <v>19</v>
@@ -740,13 +980,13 @@
         <v>16</v>
       </c>
       <c r="B18">
-        <v>1668871974</v>
+        <v>1668838823</v>
       </c>
       <c r="C18">
-        <v>1</v>
+        <v>18</v>
       </c>
       <c r="D18">
-        <v>18</v>
+        <v>1</v>
       </c>
       <c r="E18" t="s">
         <v>20</v>
@@ -757,7 +997,7 @@
         <v>17</v>
       </c>
       <c r="B19">
-        <v>1668877922</v>
+        <v>1668839007</v>
       </c>
       <c r="C19">
         <v>1</v>
@@ -774,13 +1014,13 @@
         <v>18</v>
       </c>
       <c r="B20">
-        <v>1668882734</v>
+        <v>1668839249</v>
       </c>
       <c r="C20">
-        <v>1</v>
+        <v>18</v>
       </c>
       <c r="D20">
-        <v>18</v>
+        <v>1</v>
       </c>
       <c r="E20" t="s">
         <v>22</v>
@@ -791,16 +1031,1376 @@
         <v>19</v>
       </c>
       <c r="B21">
-        <v>1668884854</v>
+        <v>1668839274</v>
       </c>
       <c r="C21">
-        <v>18</v>
+        <v>1</v>
       </c>
       <c r="D21">
-        <v>1</v>
+        <v>18</v>
       </c>
       <c r="E21" t="s">
         <v>23</v>
+      </c>
+    </row>
+    <row r="22" spans="1:5">
+      <c r="A22" s="1">
+        <v>20</v>
+      </c>
+      <c r="B22">
+        <v>1668839902</v>
+      </c>
+      <c r="C22">
+        <v>18</v>
+      </c>
+      <c r="D22">
+        <v>1</v>
+      </c>
+      <c r="E22" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="23" spans="1:5">
+      <c r="A23" s="1">
+        <v>21</v>
+      </c>
+      <c r="B23">
+        <v>1668840135</v>
+      </c>
+      <c r="C23">
+        <v>1</v>
+      </c>
+      <c r="D23">
+        <v>18</v>
+      </c>
+      <c r="E23" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="24" spans="1:5">
+      <c r="A24" s="1">
+        <v>22</v>
+      </c>
+      <c r="B24">
+        <v>1668841538</v>
+      </c>
+      <c r="C24">
+        <v>1</v>
+      </c>
+      <c r="D24">
+        <v>18</v>
+      </c>
+      <c r="E24" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="25" spans="1:5">
+      <c r="A25" s="1">
+        <v>23</v>
+      </c>
+      <c r="B25">
+        <v>1668842166</v>
+      </c>
+      <c r="C25">
+        <v>18</v>
+      </c>
+      <c r="D25">
+        <v>1</v>
+      </c>
+      <c r="E25" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="26" spans="1:5">
+      <c r="A26" s="1">
+        <v>24</v>
+      </c>
+      <c r="B26">
+        <v>1668843421</v>
+      </c>
+      <c r="C26">
+        <v>18</v>
+      </c>
+      <c r="D26">
+        <v>1</v>
+      </c>
+      <c r="E26" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="27" spans="1:5">
+      <c r="A27" s="1">
+        <v>25</v>
+      </c>
+      <c r="B27">
+        <v>1668843757</v>
+      </c>
+      <c r="C27">
+        <v>18</v>
+      </c>
+      <c r="D27">
+        <v>1</v>
+      </c>
+      <c r="E27" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="28" spans="1:5">
+      <c r="A28" s="1">
+        <v>26</v>
+      </c>
+      <c r="B28">
+        <v>1668844003</v>
+      </c>
+      <c r="C28">
+        <v>18</v>
+      </c>
+      <c r="D28">
+        <v>1</v>
+      </c>
+      <c r="E28" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="29" spans="1:5">
+      <c r="A29" s="1">
+        <v>27</v>
+      </c>
+      <c r="B29">
+        <v>1668844304</v>
+      </c>
+      <c r="C29">
+        <v>18</v>
+      </c>
+      <c r="D29">
+        <v>1</v>
+      </c>
+      <c r="E29" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="30" spans="1:5">
+      <c r="A30" s="1">
+        <v>28</v>
+      </c>
+      <c r="B30">
+        <v>1668845215</v>
+      </c>
+      <c r="C30">
+        <v>18</v>
+      </c>
+      <c r="D30">
+        <v>1</v>
+      </c>
+      <c r="E30" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="31" spans="1:5">
+      <c r="A31" s="1">
+        <v>29</v>
+      </c>
+      <c r="B31">
+        <v>1668845252</v>
+      </c>
+      <c r="C31">
+        <v>18</v>
+      </c>
+      <c r="D31">
+        <v>1</v>
+      </c>
+      <c r="E31" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="32" spans="1:5">
+      <c r="A32" s="1">
+        <v>30</v>
+      </c>
+      <c r="B32">
+        <v>1668845617</v>
+      </c>
+      <c r="C32">
+        <v>18</v>
+      </c>
+      <c r="D32">
+        <v>1</v>
+      </c>
+      <c r="E32" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="33" spans="1:5">
+      <c r="A33" s="1">
+        <v>31</v>
+      </c>
+      <c r="B33">
+        <v>1668846813</v>
+      </c>
+      <c r="C33">
+        <v>1</v>
+      </c>
+      <c r="D33">
+        <v>18</v>
+      </c>
+      <c r="E33" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="34" spans="1:5">
+      <c r="A34" s="1">
+        <v>32</v>
+      </c>
+      <c r="B34">
+        <v>1668849589</v>
+      </c>
+      <c r="C34">
+        <v>1</v>
+      </c>
+      <c r="D34">
+        <v>18</v>
+      </c>
+      <c r="E34" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="35" spans="1:5">
+      <c r="A35" s="1">
+        <v>33</v>
+      </c>
+      <c r="B35">
+        <v>1668849848</v>
+      </c>
+      <c r="C35">
+        <v>1</v>
+      </c>
+      <c r="D35">
+        <v>18</v>
+      </c>
+      <c r="E35" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="36" spans="1:5">
+      <c r="A36" s="1">
+        <v>34</v>
+      </c>
+      <c r="B36">
+        <v>1668850774</v>
+      </c>
+      <c r="C36">
+        <v>1</v>
+      </c>
+      <c r="D36">
+        <v>18</v>
+      </c>
+      <c r="E36" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="37" spans="1:5">
+      <c r="A37" s="1">
+        <v>35</v>
+      </c>
+      <c r="B37">
+        <v>1668850980</v>
+      </c>
+      <c r="C37">
+        <v>1</v>
+      </c>
+      <c r="D37">
+        <v>18</v>
+      </c>
+      <c r="E37" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="38" spans="1:5">
+      <c r="A38" s="1">
+        <v>36</v>
+      </c>
+      <c r="B38">
+        <v>1668851260</v>
+      </c>
+      <c r="C38">
+        <v>1</v>
+      </c>
+      <c r="D38">
+        <v>18</v>
+      </c>
+      <c r="E38" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="39" spans="1:5">
+      <c r="A39" s="1">
+        <v>37</v>
+      </c>
+      <c r="B39">
+        <v>1668851408</v>
+      </c>
+      <c r="C39">
+        <v>18</v>
+      </c>
+      <c r="D39">
+        <v>1</v>
+      </c>
+      <c r="E39" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="40" spans="1:5">
+      <c r="A40" s="1">
+        <v>38</v>
+      </c>
+      <c r="B40">
+        <v>1668851768</v>
+      </c>
+      <c r="C40">
+        <v>18</v>
+      </c>
+      <c r="D40">
+        <v>1</v>
+      </c>
+      <c r="E40" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="41" spans="1:5">
+      <c r="A41" s="1">
+        <v>39</v>
+      </c>
+      <c r="B41">
+        <v>1668851959</v>
+      </c>
+      <c r="C41">
+        <v>18</v>
+      </c>
+      <c r="D41">
+        <v>1</v>
+      </c>
+      <c r="E41" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="42" spans="1:5">
+      <c r="A42" s="1">
+        <v>40</v>
+      </c>
+      <c r="B42">
+        <v>1668853047</v>
+      </c>
+      <c r="C42">
+        <v>18</v>
+      </c>
+      <c r="D42">
+        <v>1</v>
+      </c>
+      <c r="E42" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="43" spans="1:5">
+      <c r="A43" s="1">
+        <v>41</v>
+      </c>
+      <c r="B43">
+        <v>1668854860</v>
+      </c>
+      <c r="C43">
+        <v>1</v>
+      </c>
+      <c r="D43">
+        <v>18</v>
+      </c>
+      <c r="E43" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="44" spans="1:5">
+      <c r="A44" s="1">
+        <v>42</v>
+      </c>
+      <c r="B44">
+        <v>1668855885</v>
+      </c>
+      <c r="C44">
+        <v>1</v>
+      </c>
+      <c r="D44">
+        <v>18</v>
+      </c>
+      <c r="E44" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="45" spans="1:5">
+      <c r="A45" s="1">
+        <v>43</v>
+      </c>
+      <c r="B45">
+        <v>1668855971</v>
+      </c>
+      <c r="C45">
+        <v>1</v>
+      </c>
+      <c r="D45">
+        <v>18</v>
+      </c>
+      <c r="E45" t="s">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="46" spans="1:5">
+      <c r="A46" s="1">
+        <v>44</v>
+      </c>
+      <c r="B46">
+        <v>1668856845</v>
+      </c>
+      <c r="C46">
+        <v>18</v>
+      </c>
+      <c r="D46">
+        <v>1</v>
+      </c>
+      <c r="E46" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="47" spans="1:5">
+      <c r="A47" s="1">
+        <v>45</v>
+      </c>
+      <c r="B47">
+        <v>1668857434</v>
+      </c>
+      <c r="C47">
+        <v>18</v>
+      </c>
+      <c r="D47">
+        <v>1</v>
+      </c>
+      <c r="E47" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="48" spans="1:5">
+      <c r="A48" s="1">
+        <v>46</v>
+      </c>
+      <c r="B48">
+        <v>1668857471</v>
+      </c>
+      <c r="C48">
+        <v>18</v>
+      </c>
+      <c r="D48">
+        <v>1</v>
+      </c>
+      <c r="E48" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="49" spans="1:5">
+      <c r="A49" s="1">
+        <v>47</v>
+      </c>
+      <c r="B49">
+        <v>1668857525</v>
+      </c>
+      <c r="C49">
+        <v>1</v>
+      </c>
+      <c r="D49">
+        <v>18</v>
+      </c>
+      <c r="E49" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="50" spans="1:5">
+      <c r="A50" s="1">
+        <v>48</v>
+      </c>
+      <c r="B50">
+        <v>1668857533</v>
+      </c>
+      <c r="C50">
+        <v>1</v>
+      </c>
+      <c r="D50">
+        <v>18</v>
+      </c>
+      <c r="E50" t="s">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="51" spans="1:5">
+      <c r="A51" s="1">
+        <v>49</v>
+      </c>
+      <c r="B51">
+        <v>1668858364</v>
+      </c>
+      <c r="C51">
+        <v>1</v>
+      </c>
+      <c r="D51">
+        <v>18</v>
+      </c>
+      <c r="E51" t="s">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="52" spans="1:5">
+      <c r="A52" s="1">
+        <v>50</v>
+      </c>
+      <c r="B52">
+        <v>1668858795</v>
+      </c>
+      <c r="C52">
+        <v>1</v>
+      </c>
+      <c r="D52">
+        <v>18</v>
+      </c>
+      <c r="E52" t="s">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="53" spans="1:5">
+      <c r="A53" s="1">
+        <v>51</v>
+      </c>
+      <c r="B53">
+        <v>1668859411</v>
+      </c>
+      <c r="C53">
+        <v>18</v>
+      </c>
+      <c r="D53">
+        <v>1</v>
+      </c>
+      <c r="E53" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="54" spans="1:5">
+      <c r="A54" s="1">
+        <v>52</v>
+      </c>
+      <c r="B54">
+        <v>1668861633</v>
+      </c>
+      <c r="C54">
+        <v>1</v>
+      </c>
+      <c r="D54">
+        <v>18</v>
+      </c>
+      <c r="E54" t="s">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="55" spans="1:5">
+      <c r="A55" s="1">
+        <v>53</v>
+      </c>
+      <c r="B55">
+        <v>1668861705</v>
+      </c>
+      <c r="C55">
+        <v>18</v>
+      </c>
+      <c r="D55">
+        <v>1</v>
+      </c>
+      <c r="E55" t="s">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="56" spans="1:5">
+      <c r="A56" s="1">
+        <v>54</v>
+      </c>
+      <c r="B56">
+        <v>1668861871</v>
+      </c>
+      <c r="C56">
+        <v>18</v>
+      </c>
+      <c r="D56">
+        <v>1</v>
+      </c>
+      <c r="E56" t="s">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="57" spans="1:5">
+      <c r="A57" s="1">
+        <v>55</v>
+      </c>
+      <c r="B57">
+        <v>1668862228</v>
+      </c>
+      <c r="C57">
+        <v>18</v>
+      </c>
+      <c r="D57">
+        <v>1</v>
+      </c>
+      <c r="E57" t="s">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="58" spans="1:5">
+      <c r="A58" s="1">
+        <v>56</v>
+      </c>
+      <c r="B58">
+        <v>1668862480</v>
+      </c>
+      <c r="C58">
+        <v>18</v>
+      </c>
+      <c r="D58">
+        <v>1</v>
+      </c>
+      <c r="E58" t="s">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="59" spans="1:5">
+      <c r="A59" s="1">
+        <v>57</v>
+      </c>
+      <c r="B59">
+        <v>1668863001</v>
+      </c>
+      <c r="C59">
+        <v>18</v>
+      </c>
+      <c r="D59">
+        <v>1</v>
+      </c>
+      <c r="E59" t="s">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="60" spans="1:5">
+      <c r="A60" s="1">
+        <v>58</v>
+      </c>
+      <c r="B60">
+        <v>1668863315</v>
+      </c>
+      <c r="C60">
+        <v>1</v>
+      </c>
+      <c r="D60">
+        <v>18</v>
+      </c>
+      <c r="E60" t="s">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="61" spans="1:5">
+      <c r="A61" s="1">
+        <v>59</v>
+      </c>
+      <c r="B61">
+        <v>1668863516</v>
+      </c>
+      <c r="C61">
+        <v>1</v>
+      </c>
+      <c r="D61">
+        <v>18</v>
+      </c>
+      <c r="E61" t="s">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="62" spans="1:5">
+      <c r="A62" s="1">
+        <v>60</v>
+      </c>
+      <c r="B62">
+        <v>1668864076</v>
+      </c>
+      <c r="C62">
+        <v>18</v>
+      </c>
+      <c r="D62">
+        <v>1</v>
+      </c>
+      <c r="E62" t="s">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="63" spans="1:5">
+      <c r="A63" s="1">
+        <v>61</v>
+      </c>
+      <c r="B63">
+        <v>1668864098</v>
+      </c>
+      <c r="C63">
+        <v>18</v>
+      </c>
+      <c r="D63">
+        <v>1</v>
+      </c>
+      <c r="E63" t="s">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="64" spans="1:5">
+      <c r="A64" s="1">
+        <v>62</v>
+      </c>
+      <c r="B64">
+        <v>1668864605</v>
+      </c>
+      <c r="C64">
+        <v>18</v>
+      </c>
+      <c r="D64">
+        <v>1</v>
+      </c>
+      <c r="E64" t="s">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="65" spans="1:5">
+      <c r="A65" s="1">
+        <v>63</v>
+      </c>
+      <c r="B65">
+        <v>1668865300</v>
+      </c>
+      <c r="C65">
+        <v>1</v>
+      </c>
+      <c r="D65">
+        <v>18</v>
+      </c>
+      <c r="E65" t="s">
+        <v>67</v>
+      </c>
+    </row>
+    <row r="66" spans="1:5">
+      <c r="A66" s="1">
+        <v>64</v>
+      </c>
+      <c r="B66">
+        <v>1668865675</v>
+      </c>
+      <c r="C66">
+        <v>18</v>
+      </c>
+      <c r="D66">
+        <v>1</v>
+      </c>
+      <c r="E66" t="s">
+        <v>68</v>
+      </c>
+    </row>
+    <row r="67" spans="1:5">
+      <c r="A67" s="1">
+        <v>65</v>
+      </c>
+      <c r="B67">
+        <v>1668866323</v>
+      </c>
+      <c r="C67">
+        <v>1</v>
+      </c>
+      <c r="D67">
+        <v>18</v>
+      </c>
+      <c r="E67" t="s">
+        <v>69</v>
+      </c>
+    </row>
+    <row r="68" spans="1:5">
+      <c r="A68" s="1">
+        <v>66</v>
+      </c>
+      <c r="B68">
+        <v>1668866598</v>
+      </c>
+      <c r="C68">
+        <v>18</v>
+      </c>
+      <c r="D68">
+        <v>1</v>
+      </c>
+      <c r="E68" t="s">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="69" spans="1:5">
+      <c r="A69" s="1">
+        <v>67</v>
+      </c>
+      <c r="B69">
+        <v>1668867802</v>
+      </c>
+      <c r="C69">
+        <v>1</v>
+      </c>
+      <c r="D69">
+        <v>18</v>
+      </c>
+      <c r="E69" t="s">
+        <v>71</v>
+      </c>
+    </row>
+    <row r="70" spans="1:5">
+      <c r="A70" s="1">
+        <v>68</v>
+      </c>
+      <c r="B70">
+        <v>1668868381</v>
+      </c>
+      <c r="C70">
+        <v>1</v>
+      </c>
+      <c r="D70">
+        <v>18</v>
+      </c>
+      <c r="E70" t="s">
+        <v>72</v>
+      </c>
+    </row>
+    <row r="71" spans="1:5">
+      <c r="A71" s="1">
+        <v>69</v>
+      </c>
+      <c r="B71">
+        <v>1668869663</v>
+      </c>
+      <c r="C71">
+        <v>1</v>
+      </c>
+      <c r="D71">
+        <v>18</v>
+      </c>
+      <c r="E71" t="s">
+        <v>73</v>
+      </c>
+    </row>
+    <row r="72" spans="1:5">
+      <c r="A72" s="1">
+        <v>70</v>
+      </c>
+      <c r="B72">
+        <v>1668869767</v>
+      </c>
+      <c r="C72">
+        <v>18</v>
+      </c>
+      <c r="D72">
+        <v>1</v>
+      </c>
+      <c r="E72" t="s">
+        <v>74</v>
+      </c>
+    </row>
+    <row r="73" spans="1:5">
+      <c r="A73" s="1">
+        <v>71</v>
+      </c>
+      <c r="B73">
+        <v>1668870794</v>
+      </c>
+      <c r="C73">
+        <v>18</v>
+      </c>
+      <c r="D73">
+        <v>1</v>
+      </c>
+      <c r="E73" t="s">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="74" spans="1:5">
+      <c r="A74" s="1">
+        <v>72</v>
+      </c>
+      <c r="B74">
+        <v>1668872150</v>
+      </c>
+      <c r="C74">
+        <v>1</v>
+      </c>
+      <c r="D74">
+        <v>18</v>
+      </c>
+      <c r="E74" t="s">
+        <v>76</v>
+      </c>
+    </row>
+    <row r="75" spans="1:5">
+      <c r="A75" s="1">
+        <v>73</v>
+      </c>
+      <c r="B75">
+        <v>1668872220</v>
+      </c>
+      <c r="C75">
+        <v>1</v>
+      </c>
+      <c r="D75">
+        <v>18</v>
+      </c>
+      <c r="E75" t="s">
+        <v>77</v>
+      </c>
+    </row>
+    <row r="76" spans="1:5">
+      <c r="A76" s="1">
+        <v>74</v>
+      </c>
+      <c r="B76">
+        <v>1668872255</v>
+      </c>
+      <c r="C76">
+        <v>18</v>
+      </c>
+      <c r="D76">
+        <v>1</v>
+      </c>
+      <c r="E76" t="s">
+        <v>78</v>
+      </c>
+    </row>
+    <row r="77" spans="1:5">
+      <c r="A77" s="1">
+        <v>75</v>
+      </c>
+      <c r="B77">
+        <v>1668872647</v>
+      </c>
+      <c r="C77">
+        <v>18</v>
+      </c>
+      <c r="D77">
+        <v>1</v>
+      </c>
+      <c r="E77" t="s">
+        <v>79</v>
+      </c>
+    </row>
+    <row r="78" spans="1:5">
+      <c r="A78" s="1">
+        <v>76</v>
+      </c>
+      <c r="B78">
+        <v>1668872919</v>
+      </c>
+      <c r="C78">
+        <v>1</v>
+      </c>
+      <c r="D78">
+        <v>18</v>
+      </c>
+      <c r="E78" t="s">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="79" spans="1:5">
+      <c r="A79" s="1">
+        <v>77</v>
+      </c>
+      <c r="B79">
+        <v>1668874249</v>
+      </c>
+      <c r="C79">
+        <v>18</v>
+      </c>
+      <c r="D79">
+        <v>1</v>
+      </c>
+      <c r="E79" t="s">
+        <v>81</v>
+      </c>
+    </row>
+    <row r="80" spans="1:5">
+      <c r="A80" s="1">
+        <v>78</v>
+      </c>
+      <c r="B80">
+        <v>1668875841</v>
+      </c>
+      <c r="C80">
+        <v>1</v>
+      </c>
+      <c r="D80">
+        <v>18</v>
+      </c>
+      <c r="E80" t="s">
+        <v>82</v>
+      </c>
+    </row>
+    <row r="81" spans="1:5">
+      <c r="A81" s="1">
+        <v>79</v>
+      </c>
+      <c r="B81">
+        <v>1668875955</v>
+      </c>
+      <c r="C81">
+        <v>1</v>
+      </c>
+      <c r="D81">
+        <v>18</v>
+      </c>
+      <c r="E81" t="s">
+        <v>83</v>
+      </c>
+    </row>
+    <row r="82" spans="1:5">
+      <c r="A82" s="1">
+        <v>80</v>
+      </c>
+      <c r="B82">
+        <v>1668876321</v>
+      </c>
+      <c r="C82">
+        <v>1</v>
+      </c>
+      <c r="D82">
+        <v>18</v>
+      </c>
+      <c r="E82" t="s">
+        <v>84</v>
+      </c>
+    </row>
+    <row r="83" spans="1:5">
+      <c r="A83" s="1">
+        <v>81</v>
+      </c>
+      <c r="B83">
+        <v>1668876458</v>
+      </c>
+      <c r="C83">
+        <v>18</v>
+      </c>
+      <c r="D83">
+        <v>1</v>
+      </c>
+      <c r="E83" t="s">
+        <v>85</v>
+      </c>
+    </row>
+    <row r="84" spans="1:5">
+      <c r="A84" s="1">
+        <v>82</v>
+      </c>
+      <c r="B84">
+        <v>1668877167</v>
+      </c>
+      <c r="C84">
+        <v>1</v>
+      </c>
+      <c r="D84">
+        <v>18</v>
+      </c>
+      <c r="E84" t="s">
+        <v>86</v>
+      </c>
+    </row>
+    <row r="85" spans="1:5">
+      <c r="A85" s="1">
+        <v>83</v>
+      </c>
+      <c r="B85">
+        <v>1668877724</v>
+      </c>
+      <c r="C85">
+        <v>18</v>
+      </c>
+      <c r="D85">
+        <v>1</v>
+      </c>
+      <c r="E85" t="s">
+        <v>87</v>
+      </c>
+    </row>
+    <row r="86" spans="1:5">
+      <c r="A86" s="1">
+        <v>84</v>
+      </c>
+      <c r="B86">
+        <v>1668878262</v>
+      </c>
+      <c r="C86">
+        <v>18</v>
+      </c>
+      <c r="D86">
+        <v>1</v>
+      </c>
+      <c r="E86" t="s">
+        <v>88</v>
+      </c>
+    </row>
+    <row r="87" spans="1:5">
+      <c r="A87" s="1">
+        <v>85</v>
+      </c>
+      <c r="B87">
+        <v>1668878662</v>
+      </c>
+      <c r="C87">
+        <v>18</v>
+      </c>
+      <c r="D87">
+        <v>1</v>
+      </c>
+      <c r="E87" t="s">
+        <v>89</v>
+      </c>
+    </row>
+    <row r="88" spans="1:5">
+      <c r="A88" s="1">
+        <v>86</v>
+      </c>
+      <c r="B88">
+        <v>1668879266</v>
+      </c>
+      <c r="C88">
+        <v>1</v>
+      </c>
+      <c r="D88">
+        <v>18</v>
+      </c>
+      <c r="E88" t="s">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="89" spans="1:5">
+      <c r="A89" s="1">
+        <v>87</v>
+      </c>
+      <c r="B89">
+        <v>1668881160</v>
+      </c>
+      <c r="C89">
+        <v>1</v>
+      </c>
+      <c r="D89">
+        <v>18</v>
+      </c>
+      <c r="E89" t="s">
+        <v>91</v>
+      </c>
+    </row>
+    <row r="90" spans="1:5">
+      <c r="A90" s="1">
+        <v>88</v>
+      </c>
+      <c r="B90">
+        <v>1668881743</v>
+      </c>
+      <c r="C90">
+        <v>18</v>
+      </c>
+      <c r="D90">
+        <v>1</v>
+      </c>
+      <c r="E90" t="s">
+        <v>92</v>
+      </c>
+    </row>
+    <row r="91" spans="1:5">
+      <c r="A91" s="1">
+        <v>89</v>
+      </c>
+      <c r="B91">
+        <v>1668882277</v>
+      </c>
+      <c r="C91">
+        <v>18</v>
+      </c>
+      <c r="D91">
+        <v>1</v>
+      </c>
+      <c r="E91" t="s">
+        <v>93</v>
+      </c>
+    </row>
+    <row r="92" spans="1:5">
+      <c r="A92" s="1">
+        <v>90</v>
+      </c>
+      <c r="B92">
+        <v>1668883207</v>
+      </c>
+      <c r="C92">
+        <v>18</v>
+      </c>
+      <c r="D92">
+        <v>1</v>
+      </c>
+      <c r="E92" t="s">
+        <v>94</v>
+      </c>
+    </row>
+    <row r="93" spans="1:5">
+      <c r="A93" s="1">
+        <v>91</v>
+      </c>
+      <c r="B93">
+        <v>1668883242</v>
+      </c>
+      <c r="C93">
+        <v>1</v>
+      </c>
+      <c r="D93">
+        <v>18</v>
+      </c>
+      <c r="E93" t="s">
+        <v>95</v>
+      </c>
+    </row>
+    <row r="94" spans="1:5">
+      <c r="A94" s="1">
+        <v>92</v>
+      </c>
+      <c r="B94">
+        <v>1668883421</v>
+      </c>
+      <c r="C94">
+        <v>18</v>
+      </c>
+      <c r="D94">
+        <v>1</v>
+      </c>
+      <c r="E94" t="s">
+        <v>96</v>
+      </c>
+    </row>
+    <row r="95" spans="1:5">
+      <c r="A95" s="1">
+        <v>93</v>
+      </c>
+      <c r="B95">
+        <v>1668883730</v>
+      </c>
+      <c r="C95">
+        <v>1</v>
+      </c>
+      <c r="D95">
+        <v>18</v>
+      </c>
+      <c r="E95" t="s">
+        <v>97</v>
+      </c>
+    </row>
+    <row r="96" spans="1:5">
+      <c r="A96" s="1">
+        <v>94</v>
+      </c>
+      <c r="B96">
+        <v>1668884135</v>
+      </c>
+      <c r="C96">
+        <v>1</v>
+      </c>
+      <c r="D96">
+        <v>18</v>
+      </c>
+      <c r="E96" t="s">
+        <v>98</v>
+      </c>
+    </row>
+    <row r="97" spans="1:5">
+      <c r="A97" s="1">
+        <v>95</v>
+      </c>
+      <c r="B97">
+        <v>1668884295</v>
+      </c>
+      <c r="C97">
+        <v>18</v>
+      </c>
+      <c r="D97">
+        <v>1</v>
+      </c>
+      <c r="E97" t="s">
+        <v>99</v>
+      </c>
+    </row>
+    <row r="98" spans="1:5">
+      <c r="A98" s="1">
+        <v>96</v>
+      </c>
+      <c r="B98">
+        <v>1668885267</v>
+      </c>
+      <c r="C98">
+        <v>1</v>
+      </c>
+      <c r="D98">
+        <v>18</v>
+      </c>
+      <c r="E98" t="s">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="99" spans="1:5">
+      <c r="A99" s="1">
+        <v>97</v>
+      </c>
+      <c r="B99">
+        <v>1668885434</v>
+      </c>
+      <c r="C99">
+        <v>18</v>
+      </c>
+      <c r="D99">
+        <v>1</v>
+      </c>
+      <c r="E99" t="s">
+        <v>101</v>
+      </c>
+    </row>
+    <row r="100" spans="1:5">
+      <c r="A100" s="1">
+        <v>98</v>
+      </c>
+      <c r="B100">
+        <v>1668885612</v>
+      </c>
+      <c r="C100">
+        <v>1</v>
+      </c>
+      <c r="D100">
+        <v>18</v>
+      </c>
+      <c r="E100" t="s">
+        <v>102</v>
+      </c>
+    </row>
+    <row r="101" spans="1:5">
+      <c r="A101" s="1">
+        <v>99</v>
+      </c>
+      <c r="B101">
+        <v>1668885658</v>
+      </c>
+      <c r="C101">
+        <v>1</v>
+      </c>
+      <c r="D101">
+        <v>18</v>
+      </c>
+      <c r="E101" t="s">
+        <v>103</v>
       </c>
     </row>
   </sheetData>
